--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2401127\eclipse-workspace\Selenium\seleniumwebdriver\MainProject\MainProject06\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2400875\git\CourseraBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF63E0-9E88-4962-8239-B9573D6ECA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B355D41-364E-4067-AF36-AC6D28DAE3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7751D9B1-2730-46D6-A5BE-D0474BCAA0B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>First Name</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>Execute</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Number Of Learners</t>
+  </si>
+  <si>
+    <t>01-04</t>
   </si>
 </sst>
 </file>
@@ -230,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,6 +258,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A35E29-D31D-474B-8AB0-1B0FAF9507F7}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +618,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,13 +647,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -642,7 +669,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>1234567890</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -660,14 +687,17 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="b">
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +707,7 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>2345678901</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -695,14 +725,17 @@
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="b">
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -712,7 +745,7 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>3456789012</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -730,14 +763,14 @@
       <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="b">
+      <c r="M4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -747,7 +780,7 @@
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>4567890123</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -765,10 +798,16 @@
       <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="1" t="b">
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2400875\git\CourseraBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2401127\eclipse-workspace\Selenium\seleniumwebdriver\MainProject\MainProject06\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B355D41-364E-4067-AF36-AC6D28DAE3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FF5EA-8000-4E18-8121-D2B844516D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7751D9B1-2730-46D6-A5BE-D0474BCAA0B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>First Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>alice.brown@example.com</t>
-  </si>
-  <si>
     <t>Graduate or Professional School</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Existing customer support</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
   </si>
   <si>
     <t>01-04</t>
+  </si>
+  <si>
+    <t>alicebrown.com</t>
   </si>
 </sst>
 </file>
@@ -600,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A35E29-D31D-474B-8AB0-1B0FAF9507F7}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,16 +644,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
@@ -691,10 +688,10 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -729,10 +726,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -743,28 +740,31 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5">
         <v>3456789012</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="b">
         <v>1</v>
@@ -772,43 +772,43 @@
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="5">
         <v>4567890123</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
